--- a/graphs-new.xlsx
+++ b/graphs-new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galkesten/Documents/technion/Domestic-Violence-Classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C68B58-CF93-EB4D-9FAD-D914FA41EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7F1FB3-797F-0A40-8CF0-FF9AFC84E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2300" windowWidth="27240" windowHeight="16440" firstSheet="5" activeTab="9" xr2:uid="{FF4743A9-9095-3946-A3FB-F8E2AF49FA4E}"/>
+    <workbookView xWindow="5520" yWindow="1960" windowWidth="27240" windowHeight="16440" firstSheet="6" activeTab="8" xr2:uid="{FF4743A9-9095-3946-A3FB-F8E2AF49FA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="effect of text pre processing" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,18 @@
     <sheet name="second Experiment" sheetId="8" r:id="rId8"/>
     <sheet name="effect of vectors addition" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'second Experiment'!$I$2:$I$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'second Experiment'!$J$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'second Experiment'!$J$2:$J$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'second Experiment'!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'second Experiment'!$K$2:$K$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'second Experiment'!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'second Experiment'!$L$2:$L$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="110">
   <si>
     <t>Lemmatization</t>
   </si>
@@ -369,6 +379,12 @@
   <si>
     <t>mpnet</t>
   </si>
+  <si>
+    <t>minimal pre process</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +392,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -443,7 +459,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1906,11 +1922,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'second Experiment'!$J$1</c:f>
+              <c:f>'second Experiment'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bagOfWords</c:v>
+                  <c:v>minimal preprocess</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1984,41 +2000,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'second Experiment'!$I$2:$I$5</c:f>
+              <c:f>'second Experiment'!$J$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>minimal preprocess</c:v>
+                  <c:v>bagOfWords</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>stop words removal</c:v>
+                  <c:v>tfidf</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Lemmatization</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Lemmatization + stop words removal</c:v>
+                  <c:v>bagOfWords+tfidf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'second Experiment'!$J$2:$J$5</c:f>
+              <c:f>'second Experiment'!$J$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.74062499999999953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73187500000000005</c:v>
+                  <c:v>0.75812499999999949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73124999999999929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73249999999999948</c:v>
+                  <c:v>0.74187499999999917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,11 +2044,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'second Experiment'!$K$1</c:f>
+              <c:f>'second Experiment'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tfidf</c:v>
+                  <c:v>stop words removal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2112,41 +2122,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'second Experiment'!$I$2:$I$5</c:f>
+              <c:f>'second Experiment'!$J$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>minimal preprocess</c:v>
+                  <c:v>bagOfWords</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>stop words removal</c:v>
+                  <c:v>tfidf</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Lemmatization</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Lemmatization + stop words removal</c:v>
+                  <c:v>bagOfWords+tfidf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'second Experiment'!$K$2:$K$5</c:f>
+              <c:f>'second Experiment'!$J$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75812499999999949</c:v>
+                  <c:v>0.73187500000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.75312499999999971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75374999999999936</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74</c:v>
+                  <c:v>0.73187499999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,11 +2166,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'second Experiment'!$L$1</c:f>
+              <c:f>'second Experiment'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bagOfWords+tfidf</c:v>
+                  <c:v>Lemmatization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2240,41 +2244,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'second Experiment'!$I$2:$I$5</c:f>
+              <c:f>'second Experiment'!$J$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>minimal preprocess</c:v>
+                  <c:v>bagOfWords</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>stop words removal</c:v>
+                  <c:v>tfidf</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Lemmatization</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Lemmatization + stop words removal</c:v>
+                  <c:v>bagOfWords+tfidf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'second Experiment'!$L$2:$L$5</c:f>
+              <c:f>'second Experiment'!$J$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.74187499999999917</c:v>
+                  <c:v>0.73124999999999929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73187499999999994</c:v>
+                  <c:v>0.75374999999999936</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.73499999999999976</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72249999999999981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,6 +2280,128 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7AB8-9144-AD34-979302D3CA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'second Experiment'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lemmatization + stop words removal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'second Experiment'!$J$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bagOfWords</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bagOfWords+tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'second Experiment'!$J$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.73249999999999948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72249999999999981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BBB-C044-A79D-51CED5FFB677}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2985,7 +3105,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3125,7 +3245,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3265,7 +3385,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3405,7 +3525,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3745,6 +3865,729 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>with bagOfWords+tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>minimal pre process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lemmatization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.79861111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80222222222222228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6334-3D47-A598-4D56611503A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>with bagOfwords</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>minimal pre process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lemmatization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.80041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80166666666666675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6334-3D47-A598-4D56611503A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>regular</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>minimal pre process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lemmatization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.84250000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83972222222222237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6334-3D47-A598-4D56611503A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>with tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>minimal pre process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lemmatization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.84291666666666687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84402777777777782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6334-3D47-A598-4D56611503A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="560458336"/>
+        <c:axId val="560068480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560458336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560068480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560068480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560458336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3823,7 +4666,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3831,6 +4677,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$B$5:$D$5</c:f>
@@ -3852,7 +4756,7 @@
             <c:numRef>
               <c:f>Sheet4!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.828125</c:v>
@@ -3896,6 +4800,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$B$5:$D$5</c:f>
@@ -3917,7 +4879,7 @@
             <c:numRef>
               <c:f>Sheet4!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.82895833333333302</c:v>
@@ -3961,6 +4923,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$B$5:$D$5</c:f>
@@ -3982,7 +5002,7 @@
             <c:numRef>
               <c:f>Sheet4!$B$8:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.82833333333333403</c:v>
@@ -4026,6 +5046,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$B$5:$D$5</c:f>
@@ -4047,7 +5125,7 @@
             <c:numRef>
               <c:f>Sheet4!$B$9:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.82374999999999998</c:v>
@@ -4068,8 +5146,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4153,7 +5232,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10807,6 +11886,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
@@ -14066,6 +15185,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
@@ -18153,6 +19775,47 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8047EB21-CBE3-754D-925F-C6F3DDDA7E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18551,16 +20214,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>751353</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>332253</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48518</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18928,7 +20591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81379A-23C2-B346-85EC-7DA6321BF378}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -18990,8 +20653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D272ED3B-92BA-614B-9CFE-2EEC91D64BFD}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="D14" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19813,11 +21476,961 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC48A37-AFFF-874A-B83C-C419C2CFBCC4}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>0.80166666666666675</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E49" si="0">AVERAGE(B3:D3)</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="7">
+        <f>AVERAGE(E8, E16, E24, E32, E40, E48)</f>
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="J3" s="7">
+        <f>AVERAGE(E4,E12, E20, E28, E36, E44)</f>
+        <v>0.80041666666666667</v>
+      </c>
+      <c r="K3" s="7">
+        <f>AVERAGE(E2,E10,E18, E26, E34, E42)</f>
+        <v>0.84250000000000014</v>
+      </c>
+      <c r="L3" s="7">
+        <f>AVERAGE(E6, E14, E22, E30, E38, E46)</f>
+        <v>0.84291666666666687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.79416666666666658</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f>AVERAGE(E9, E17, E25, E33, E41, E49)</f>
+        <v>0.80222222222222228</v>
+      </c>
+      <c r="J4" s="7">
+        <f>AVERAGE(E5, E13, E21,E29,E37, E45)</f>
+        <v>0.80166666666666675</v>
+      </c>
+      <c r="K4" s="7">
+        <f>AVERAGE(E3,E11,E19,E27,E35,E43)</f>
+        <v>0.83972222222222237</v>
+      </c>
+      <c r="L4" s="7">
+        <f>AVERAGE(E7,E15,E23,E31,E39,E47)</f>
+        <v>0.84402777777777782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.81166666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.8175</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.81083333333333341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.79249999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.80916666666666659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.8175</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.8175</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.79083333333333339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.78166666666666662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.81416666666666659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.78250000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.77833333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.83666666666666678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.83083333333333342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.79416666666666658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.79666666666666675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.83249999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.83416666666666661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.79666666666666675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.80083333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.87249999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.87249999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.81333333333333335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.81083333333333341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.87083333333333346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.87333333333333341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.81083333333333341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.81083333333333341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.87083333333333346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.80333333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.86333333333333329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.86249999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.80166666666666675</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.86416666666666675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.85250000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.80583333333333329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.8783333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.80583333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1A8B64-6B38-F84A-B2AC-31A4D8775BD0}">
   <dimension ref="A5:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="B4" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19842,13 +22455,13 @@
       <c r="A6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>0.828125</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>0.83958333333333401</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>0.85562499999999997</v>
       </c>
     </row>
@@ -19856,13 +22469,13 @@
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>0.82895833333333302</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>0.83229166666666698</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>0.74187499999999995</v>
       </c>
     </row>
@@ -19870,13 +22483,13 @@
       <c r="A8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>0.82833333333333403</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>0.85145833333333298</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>0.85062499999999996</v>
       </c>
     </row>
@@ -19884,13 +22497,13 @@
       <c r="A9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>0.82374999999999998</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>0.83562499999999995</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>0.74187499999999995</v>
       </c>
     </row>
@@ -19904,7 +22517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB48865A-9AFF-3A43-BA11-CCFDB32B9067}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -19995,8 +22608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E31CE85-A7D9-0847-AB1B-0E5202C6FAEB}">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20047,10 +22660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56A28AC-0A0B-1943-AF2F-FC3F124E9BBF}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20061,7 +22674,7 @@
     <col min="5" max="5" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -20078,7 +22691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -20095,7 +22708,7 @@
         <v>0.74062499999999953</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -20112,7 +22725,7 @@
         <v>0.75812499999999949</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -20129,7 +22742,7 @@
         <v>0.72437499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -20146,7 +22759,7 @@
         <v>0.76687499999999975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -20163,7 +22776,7 @@
         <v>0.78437499999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -20180,7 +22793,7 @@
         <v>0.82687499999999969</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -20196,8 +22809,11 @@
       <c r="E8" s="7">
         <v>0.86124999999999974</v>
       </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -20214,7 +22830,7 @@
         <v>0.86187499999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -20241,8 +22857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2220C7F4-0EBC-3943-8C8A-268DF1E3C944}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20345,7 +22961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864F67BA-2CAF-F547-8B53-7224CB848C91}">
   <dimension ref="A3:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C11" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -20534,7 +23150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AACEA64-1DB2-7444-A010-BF9417039AF5}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D42" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
@@ -21267,8 +23883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BDFE51-2590-774E-B477-2E1E3B71DB00}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="G14" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21604,8 +24220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5D584D-B14F-E94C-9ADF-61CBBB209443}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
